--- a/GradedExercise.xlsx
+++ b/GradedExercise.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christianr/Documents/workspace/hs18-enb-Beniiii/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9046A021-A224-1C45-9593-65401F2FDA41}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13860" yWindow="2260" windowWidth="30440" windowHeight="24580" tabRatio="500"/>
+    <workbookView xWindow="1280" yWindow="460" windowWidth="30440" windowHeight="20540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,8 +18,13 @@
   <definedNames>
     <definedName name="TOTAL_POINTS">Sheet1!$I$33</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -165,7 +176,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -264,6 +275,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -588,14 +607,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.83203125" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" customWidth="1"/>
@@ -604,10 +623,10 @@
     <col min="6" max="6" width="4.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>23</v>
       </c>
@@ -630,7 +649,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="2:9">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D4">
         <v>5</v>
       </c>
@@ -638,10 +657,10 @@
         <v>6</v>
       </c>
       <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D5">
         <v>15</v>
       </c>
@@ -649,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -661,14 +680,14 @@
       </c>
       <c r="G6" s="4">
         <f>SUM(G4:G5)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H6" s="4">
         <f>MIN(C6,G6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D8">
         <v>2</v>
       </c>
@@ -679,7 +698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D9">
         <v>2</v>
       </c>
@@ -687,10 +706,10 @@
         <v>3</v>
       </c>
       <c r="G9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D10">
         <v>3</v>
       </c>
@@ -698,10 +717,10 @@
         <v>9</v>
       </c>
       <c r="G10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D11">
         <v>3</v>
       </c>
@@ -712,7 +731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:9">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D12">
         <v>5</v>
       </c>
@@ -720,10 +739,10 @@
         <v>7</v>
       </c>
       <c r="G12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D13">
         <v>7</v>
       </c>
@@ -734,7 +753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:9">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
@@ -743,18 +762,18 @@
       </c>
       <c r="G14" s="4">
         <f>SUM(G8:G13)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H14" s="4">
         <f>MIN(C14,G14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="2:9">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D16">
         <v>5</v>
       </c>
@@ -762,10 +781,10 @@
         <v>10</v>
       </c>
       <c r="G16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D17">
         <v>5</v>
       </c>
@@ -773,10 +792,10 @@
         <v>13</v>
       </c>
       <c r="G17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D18">
         <v>2</v>
       </c>
@@ -784,10 +803,10 @@
         <v>12</v>
       </c>
       <c r="G18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D19">
         <v>2</v>
       </c>
@@ -795,10 +814,10 @@
         <v>11</v>
       </c>
       <c r="G19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D20">
         <v>2</v>
       </c>
@@ -806,10 +825,10 @@
         <v>14</v>
       </c>
       <c r="G20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D21">
         <v>2</v>
       </c>
@@ -817,10 +836,10 @@
         <v>15</v>
       </c>
       <c r="G21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D22">
         <v>2</v>
       </c>
@@ -828,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="G22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>8</v>
       </c>
@@ -840,14 +859,14 @@
       </c>
       <c r="G23" s="4">
         <f>SUM(G16:G22)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H23" s="4">
         <f>MIN(C23,G23)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D25">
         <v>2</v>
       </c>
@@ -858,7 +877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:8">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D26">
         <v>2</v>
       </c>
@@ -869,7 +888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:8">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D27">
         <v>2</v>
       </c>
@@ -880,7 +899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:8">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D28">
         <v>5</v>
       </c>
@@ -888,10 +907,10 @@
         <v>19</v>
       </c>
       <c r="G28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D29">
         <v>5</v>
       </c>
@@ -902,7 +921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:8">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>17</v>
       </c>
@@ -911,14 +930,14 @@
       </c>
       <c r="G30" s="4">
         <f>SUM(G25:G29)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H30" s="4">
         <f>MIN(C30,G30)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" s="3" t="s">
         <v>25</v>
       </c>
@@ -927,14 +946,14 @@
       </c>
       <c r="H33">
         <f>SUM(H4:H30)</f>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="I33">
         <f>MIN(C33,H33)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" s="5" t="s">
         <v>30</v>
       </c>
@@ -946,7 +965,7 @@
       <c r="H35" s="5"/>
       <c r="I35" s="6">
         <f>1 + TOTAL_POINTS/10</f>
-        <v>1</v>
+        <v>5.2</v>
       </c>
     </row>
   </sheetData>
